--- a/Assets/csv/billiejean.xlsx
+++ b/Assets/csv/billiejean.xlsx
@@ -1,30 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohamed khrouf\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\UnityProjectMusicalInstrument\Assets\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A223F4-F42A-4FAB-8919-EED7B6D62CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11952" windowHeight="5064"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="4">
   <si>
     <t>{hiHat}</t>
   </si>
@@ -41,7 +51,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -352,16 +362,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IC4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="ER1" workbookViewId="0">
+      <selection activeCell="FE2" sqref="FE2:FX2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:237" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:237" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -1310,7 +1320,7 @@
         <v>61.034482758620804</v>
       </c>
     </row>
-    <row r="2" spans="1:237" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:237" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1323,8 +1333,8 @@
       <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
-        <v>1</v>
+      <c r="E2">
+        <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>1</v>
@@ -1338,8 +1348,8 @@
       <c r="I2" t="s">
         <v>1</v>
       </c>
-      <c r="J2" t="s">
-        <v>1</v>
+      <c r="J2">
+        <v>0</v>
       </c>
       <c r="K2" t="s">
         <v>1</v>
@@ -1353,8 +1363,8 @@
       <c r="N2" t="s">
         <v>1</v>
       </c>
-      <c r="O2" t="s">
-        <v>1</v>
+      <c r="O2">
+        <v>0</v>
       </c>
       <c r="P2" t="s">
         <v>1</v>
@@ -1368,8 +1378,8 @@
       <c r="S2" t="s">
         <v>1</v>
       </c>
-      <c r="T2" t="s">
-        <v>1</v>
+      <c r="T2">
+        <v>0</v>
       </c>
       <c r="U2" t="s">
         <v>1</v>
@@ -1383,8 +1393,8 @@
       <c r="X2" t="s">
         <v>1</v>
       </c>
-      <c r="Y2" t="s">
-        <v>1</v>
+      <c r="Y2">
+        <v>0</v>
       </c>
       <c r="Z2" t="s">
         <v>1</v>
@@ -1398,8 +1408,8 @@
       <c r="AC2" t="s">
         <v>1</v>
       </c>
-      <c r="AD2" t="s">
-        <v>1</v>
+      <c r="AD2">
+        <v>0</v>
       </c>
       <c r="AE2" t="s">
         <v>1</v>
@@ -1413,8 +1423,8 @@
       <c r="AH2" t="s">
         <v>1</v>
       </c>
-      <c r="AI2" t="s">
-        <v>1</v>
+      <c r="AI2">
+        <v>0</v>
       </c>
       <c r="AJ2" t="s">
         <v>1</v>
@@ -1428,8 +1438,8 @@
       <c r="AM2" t="s">
         <v>1</v>
       </c>
-      <c r="AN2" t="s">
-        <v>1</v>
+      <c r="AN2">
+        <v>0</v>
       </c>
       <c r="AO2" t="s">
         <v>1</v>
@@ -1443,8 +1453,8 @@
       <c r="AR2" t="s">
         <v>1</v>
       </c>
-      <c r="AS2" t="s">
-        <v>1</v>
+      <c r="AS2">
+        <v>0</v>
       </c>
       <c r="AT2" t="s">
         <v>1</v>
@@ -1458,8 +1468,8 @@
       <c r="AW2" t="s">
         <v>1</v>
       </c>
-      <c r="AX2" t="s">
-        <v>1</v>
+      <c r="AX2">
+        <v>0</v>
       </c>
       <c r="AY2" t="s">
         <v>1</v>
@@ -1473,8 +1483,8 @@
       <c r="BB2" t="s">
         <v>1</v>
       </c>
-      <c r="BC2" t="s">
-        <v>1</v>
+      <c r="BC2">
+        <v>0</v>
       </c>
       <c r="BD2" t="s">
         <v>1</v>
@@ -1488,8 +1498,8 @@
       <c r="BG2" t="s">
         <v>1</v>
       </c>
-      <c r="BH2" t="s">
-        <v>1</v>
+      <c r="BH2">
+        <v>0</v>
       </c>
       <c r="BI2" t="s">
         <v>1</v>
@@ -1503,8 +1513,8 @@
       <c r="BL2" t="s">
         <v>1</v>
       </c>
-      <c r="BM2" t="s">
-        <v>1</v>
+      <c r="BM2">
+        <v>0</v>
       </c>
       <c r="BN2" t="s">
         <v>1</v>
@@ -1518,8 +1528,8 @@
       <c r="BQ2" t="s">
         <v>1</v>
       </c>
-      <c r="BR2" t="s">
-        <v>1</v>
+      <c r="BR2">
+        <v>0</v>
       </c>
       <c r="BS2" t="s">
         <v>1</v>
@@ -1533,8 +1543,8 @@
       <c r="BV2" t="s">
         <v>1</v>
       </c>
-      <c r="BW2" t="s">
-        <v>1</v>
+      <c r="BW2">
+        <v>0</v>
       </c>
       <c r="BX2" t="s">
         <v>1</v>
@@ -1548,8 +1558,8 @@
       <c r="CA2" t="s">
         <v>1</v>
       </c>
-      <c r="CB2" t="s">
-        <v>1</v>
+      <c r="CB2">
+        <v>0</v>
       </c>
       <c r="CC2" t="s">
         <v>1</v>
@@ -1563,8 +1573,8 @@
       <c r="CF2" t="s">
         <v>1</v>
       </c>
-      <c r="CG2" t="s">
-        <v>1</v>
+      <c r="CG2">
+        <v>0</v>
       </c>
       <c r="CH2" t="s">
         <v>1</v>
@@ -1578,8 +1588,8 @@
       <c r="CK2" t="s">
         <v>1</v>
       </c>
-      <c r="CL2" t="s">
-        <v>1</v>
+      <c r="CL2">
+        <v>0</v>
       </c>
       <c r="CM2" t="s">
         <v>1</v>
@@ -1593,8 +1603,8 @@
       <c r="CP2" t="s">
         <v>1</v>
       </c>
-      <c r="CQ2" t="s">
-        <v>1</v>
+      <c r="CQ2">
+        <v>0</v>
       </c>
       <c r="CR2" t="s">
         <v>1</v>
@@ -1608,8 +1618,8 @@
       <c r="CU2" t="s">
         <v>1</v>
       </c>
-      <c r="CV2" t="s">
-        <v>1</v>
+      <c r="CV2">
+        <v>0</v>
       </c>
       <c r="CW2" t="s">
         <v>1</v>
@@ -1623,8 +1633,8 @@
       <c r="CZ2" t="s">
         <v>1</v>
       </c>
-      <c r="DA2" t="s">
-        <v>1</v>
+      <c r="DA2">
+        <v>0</v>
       </c>
       <c r="DB2" t="s">
         <v>1</v>
@@ -1638,8 +1648,8 @@
       <c r="DE2" t="s">
         <v>1</v>
       </c>
-      <c r="DF2" t="s">
-        <v>1</v>
+      <c r="DF2">
+        <v>0</v>
       </c>
       <c r="DG2" t="s">
         <v>1</v>
@@ -1653,8 +1663,8 @@
       <c r="DJ2" t="s">
         <v>1</v>
       </c>
-      <c r="DK2" t="s">
-        <v>1</v>
+      <c r="DK2">
+        <v>0</v>
       </c>
       <c r="DL2" t="s">
         <v>1</v>
@@ -1668,8 +1678,8 @@
       <c r="DO2" t="s">
         <v>1</v>
       </c>
-      <c r="DP2" t="s">
-        <v>1</v>
+      <c r="DP2">
+        <v>0</v>
       </c>
       <c r="DQ2" t="s">
         <v>1</v>
@@ -1683,8 +1693,8 @@
       <c r="DT2" t="s">
         <v>1</v>
       </c>
-      <c r="DU2" t="s">
-        <v>1</v>
+      <c r="DU2">
+        <v>0</v>
       </c>
       <c r="DV2" t="s">
         <v>1</v>
@@ -1698,8 +1708,8 @@
       <c r="DY2" t="s">
         <v>1</v>
       </c>
-      <c r="DZ2" t="s">
-        <v>1</v>
+      <c r="DZ2">
+        <v>0</v>
       </c>
       <c r="EA2" t="s">
         <v>1</v>
@@ -1713,8 +1723,8 @@
       <c r="ED2" t="s">
         <v>1</v>
       </c>
-      <c r="EE2" t="s">
-        <v>1</v>
+      <c r="EE2">
+        <v>0</v>
       </c>
       <c r="EF2" t="s">
         <v>1</v>
@@ -1728,8 +1738,8 @@
       <c r="EI2" t="s">
         <v>1</v>
       </c>
-      <c r="EJ2" t="s">
-        <v>1</v>
+      <c r="EJ2">
+        <v>0</v>
       </c>
       <c r="EK2" t="s">
         <v>1</v>
@@ -1743,8 +1753,8 @@
       <c r="EN2" t="s">
         <v>1</v>
       </c>
-      <c r="EO2" t="s">
-        <v>1</v>
+      <c r="EO2">
+        <v>0</v>
       </c>
       <c r="EP2" t="s">
         <v>1</v>
@@ -1758,8 +1768,8 @@
       <c r="ES2" t="s">
         <v>1</v>
       </c>
-      <c r="ET2" t="s">
-        <v>1</v>
+      <c r="ET2">
+        <v>0</v>
       </c>
       <c r="EU2" t="s">
         <v>1</v>
@@ -1773,8 +1783,8 @@
       <c r="EX2" t="s">
         <v>1</v>
       </c>
-      <c r="EY2" t="s">
-        <v>1</v>
+      <c r="EY2">
+        <v>0</v>
       </c>
       <c r="EZ2" t="s">
         <v>1</v>
@@ -1788,8 +1798,8 @@
       <c r="FC2" t="s">
         <v>1</v>
       </c>
-      <c r="FD2" t="s">
-        <v>1</v>
+      <c r="FD2">
+        <v>0</v>
       </c>
       <c r="FE2" t="s">
         <v>1</v>
@@ -1803,8 +1813,8 @@
       <c r="FH2" t="s">
         <v>1</v>
       </c>
-      <c r="FI2" t="s">
-        <v>1</v>
+      <c r="FI2">
+        <v>0</v>
       </c>
       <c r="FJ2" t="s">
         <v>1</v>
@@ -1818,8 +1828,8 @@
       <c r="FM2" t="s">
         <v>1</v>
       </c>
-      <c r="FN2" t="s">
-        <v>1</v>
+      <c r="FN2">
+        <v>0</v>
       </c>
       <c r="FO2" t="s">
         <v>1</v>
@@ -1833,8 +1843,8 @@
       <c r="FR2" t="s">
         <v>1</v>
       </c>
-      <c r="FS2" t="s">
-        <v>1</v>
+      <c r="FS2">
+        <v>0</v>
       </c>
       <c r="FT2" t="s">
         <v>1</v>
@@ -1848,8 +1858,8 @@
       <c r="FW2" t="s">
         <v>1</v>
       </c>
-      <c r="FX2" t="s">
-        <v>1</v>
+      <c r="FX2">
+        <v>0</v>
       </c>
       <c r="FY2" t="s">
         <v>1</v>
@@ -2023,7 +2033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:237" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:237" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -2964,7 +2974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:237" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:237" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>

--- a/Assets/csv/billiejean.xlsx
+++ b/Assets/csv/billiejean.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\UnityProjectMusicalInstrument\Assets\csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohamed khrouf\Desktop\unity\UnityProjectMusicalInstrument\Assets\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A223F4-F42A-4FAB-8919-EED7B6D62CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -51,7 +50,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -362,16 +361,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IC4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="ER1" workbookViewId="0">
-      <selection activeCell="FE2" sqref="FE2:FX2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:237" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:237" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>0</v>
       </c>
@@ -396,7 +395,7 @@
         <v>1.2931034482758599</v>
       </c>
       <c r="G1">
-        <f t="shared" si="0"/>
+        <f>F1+0.517241379310344/2</f>
         <v>1.5517241379310318</v>
       </c>
       <c r="H1">
@@ -1320,7 +1319,7 @@
         <v>61.034482758620804</v>
       </c>
     </row>
-    <row r="2" spans="1:237" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:237" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2033,7 +2032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:237" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:237" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -2974,7 +2973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:237" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:237" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
